--- a/dados_militares_todos_anos.xlsx
+++ b/dados_militares_todos_anos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>OM/Data</t>
+          <t>Situação</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Email/Motivo</t>
+          <t>Ano</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Situação</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Ano</t>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Motivo</t>
         </is>
       </c>
     </row>
@@ -478,24 +488,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>CDS (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>caique_nery_@hotmail.com</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -510,24 +522,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>IMBEL (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>gabrielvanguardeira@gmail.com</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,24 +556,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>7º CTA (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>cadmaurosergio@gmail.com</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -574,24 +590,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>CAEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>osmarfgfilho@hotmail.com</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -606,24 +624,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>8º BEC (Santarém-PA)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>peterson-siqueir@hotmail.com</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -638,24 +658,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>3º CTA (São Paulo-SP)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>ajstourinho@gmail.com</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -670,24 +692,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>9º BEC (Cuiabá-MT)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>alexandrepfreitasapf@gmail.com</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -702,24 +726,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>CDS (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>andreluiz.lf11@gmail.com</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -734,24 +760,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>5º CGEO (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>andreylcj@gmail.com</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -766,24 +794,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>ComDCiber (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>arthur.bartz@ime.eb.br</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -798,24 +828,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>3º CGEO (Olinda-PE)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>arthurdears101199@gmail.com</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -830,24 +862,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Cmdo 11ª RM (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>claricegarnica@gmail.com</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -862,24 +896,26 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>CTEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>clarisse.rufino@ime.eb.br</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -894,24 +930,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>DF (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>danielbotinelly@gmail.com</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -926,24 +964,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>3º CGEO (Olinda-PE)</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>dansouza0997@gmail.com</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -958,24 +998,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>CAEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>eduarda.arbex@eb.mil.br</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -990,24 +1032,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>DF (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>eduardo.hamilko@eb.mil.br</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1022,24 +1066,26 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Cmdo 4ª RM (Belo Horizonte-MG)</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>eucleberj@gmail.com</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1054,24 +1100,26 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>6º CTA (Campo Grande-MS)</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>felipebarrosbw@gmail.com</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1086,24 +1134,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>CRO/9ª RM (Campo Grande-MS)</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>felipehcrfernandes3@gmail.com</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1118,24 +1168,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>AGSP (Barueri-SP)</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>fernando.sawada@ime.eb.br</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1150,24 +1202,26 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>3º Gpt E (Campo Grande-MS)</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>gabialoureiro@gmail.com</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1182,24 +1236,26 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>AGR (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>guilhermeorsis@gmail.com</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1214,24 +1270,26 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>CDS (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>carnevalegrc@gmail.com</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1246,24 +1304,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>CRO/11ª RM (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>gustavo.gullit@eb.mil.br</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1278,24 +1338,26 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>1º CTA (Porto Alegre-RS)</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>gustavomaringoulart@gmail.com</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1310,24 +1372,26 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>IMBEL (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>henrique.sousa@ime.eb.br</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1342,24 +1406,26 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>DF (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>iasmin.ms@gmail.com</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1374,24 +1440,26 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>CRO/1ª RM (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>joao.rosa@ime.eb.br</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1406,24 +1474,26 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>CTEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>lorena.araujo@ime.eb.br</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1438,24 +1508,26 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>2º BEC (Teresina-PI)</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>lucasitaloaa@gmail.com</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1470,24 +1542,26 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>IMBEL (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>lucas.bezerra@ime.eb.br</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1502,24 +1576,26 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>1º CTA (Porto Alegre-RS)</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>lucasrafael.silva@eb.mil.br</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1534,24 +1610,26 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>CDS (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>silveira.lucas@eb.mil.br</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1566,24 +1644,26 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>4º BEC (Barreiras-BA)</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>ledoc99@gmail.com</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1598,24 +1678,26 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>CTEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>cavalcante.luis@eb.mil.br</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1630,24 +1712,26 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>AGSP (Barueri-SP)</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>lhdt2000@gmail.com</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1662,24 +1746,26 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>1º B Fv (Lages-SC)</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>luizeduardor97@gmail.com</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1694,24 +1780,26 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>4º CGEO (Manaus-AM)</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>luiz.nogueira@ime.eb.br</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1726,24 +1814,26 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>CRO/7ª RM (Recife-PE)</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>mateusguarnieri00@gmail.com</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1758,24 +1848,26 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Pq R Mnt/3ª RM (Santa Maria-RS)</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>mateusouza39@gmail.com</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1790,24 +1882,26 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>CRO/8ª RM (Belém-PA)</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>1domingos.matheus@gmail.com</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1822,24 +1916,26 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>ComDCiber (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>mayara.rib15@gmail.com</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1854,24 +1950,26 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>IMBEL (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>nicolle.vasconcelos@ime.eb.br</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1886,24 +1984,26 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>CDS (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>menezes.aguiar@eb.mil.br</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1918,24 +2018,26 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>2º B Fv (Araguari-MG)</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>pedro.solino@ime.eb.br</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1950,24 +2052,26 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>CDS (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>pedro.breda@eb.mil.br</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1982,24 +2086,26 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>AGSP (Barueri-SP)</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>pedrohppm@gmail.com</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2014,24 +2120,26 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>IMBEL (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>ramoncloss@hotmail.com</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2046,24 +2154,26 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>CRO/8ª RM (Belém-PA)</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>rodrigo.teruo.olv@hotmail.com</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2078,24 +2188,26 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>1º BEC (Caicó-RN)</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>romerojunior22@gmail.com</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2110,24 +2222,26 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>IMBEL (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>samuel.moraisbarros@gmail.com</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2142,24 +2256,26 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>5º CGEO (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>samuelramalheira123@gmail.com</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2174,24 +2290,26 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>AGR (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>thallyoyuri@gmail.com</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2206,24 +2324,26 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>2º CGEO (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>tiago.almeidatiti@gmail.com</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2238,24 +2358,26 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>DC Mun (Paracambi-RJ)</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>victorttvinicius@gmail.com</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2270,24 +2392,26 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>CAEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>viniciuscmachado22@gmail.com</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2302,24 +2426,26 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>AC-Defesa (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>moraes@acdefesa.mil.br</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2334,24 +2460,26 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>2º CTA (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>yuyiwangxia@gmail.com</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2366,22 +2494,24 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>14/02/24</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2398,22 +2528,24 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>08/03/24</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2430,22 +2562,24 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>05/02/24</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2462,22 +2596,24 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>10/06/24</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2494,22 +2630,24 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>05/02/24</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2526,22 +2664,24 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>05/02/24</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2558,22 +2698,24 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>30/12/19</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
         <is>
           <t>Ex officio, por falta de aproveitamento escolar</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2590,22 +2732,24 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>18/10/24</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2622,22 +2766,24 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>05/02/24</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2654,22 +2800,24 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>19/09/24</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2686,22 +2834,24 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>05/02/24</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2718,22 +2868,24 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>22/01/24</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2750,22 +2902,24 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>05/02/24</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2782,22 +2936,24 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>05/02/24</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2814,22 +2970,24 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>05/02/24</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2846,24 +3004,26 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>AGR (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>accioly1504@gmail.com</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2878,24 +3038,26 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>CRO/8ª RM (Belém-PA)</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>aninhabusesilva@gmail.com</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2910,24 +3072,26 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>4º CGEO (Manaus-AM)</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>antdp408@gmail.com</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2942,24 +3106,26 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>CIGE (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>artur.tuyama@eb.mil.br</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2974,24 +3140,26 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>CTEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>b.luberiaga@gmail.com</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3006,24 +3174,26 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>7º BEC (Rio Branco-AC)</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>bentofgome@gmail.com</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3038,24 +3208,26 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>Cmdo 1º Gpt E (João Pessoa-PB)</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>ceciliahsf@gmail.com</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3070,24 +3242,26 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>CDS (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>clarabeatrizmmc@gmail.com</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3102,24 +3276,26 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>CTEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>clara.rprata@gmail.com</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3134,24 +3310,26 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>IDQBRN (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>cjferro21@gmail.com</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3166,24 +3344,26 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>CRO/11ª RM (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>daniloramosrodrigues@gmail.com</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3198,24 +3378,26 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
           <t>3º BEC (Picos-PI)</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>daviricardosousa@gmail.com</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3230,24 +3412,26 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>2º CGEO (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>diene12374@gmail.com</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3262,24 +3446,26 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>CTEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>eduwpadovany@outlook.com</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3294,24 +3480,26 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>3º CGEO (Olinda-PE)</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>felipe.aguiar@ime.eb.br</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3326,24 +3514,26 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>CTEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>fernandalemos.pascoa@eb.mil.br</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3358,24 +3548,26 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>CAEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>gfernandezsantos@outlook.com</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3390,24 +3582,26 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t>IDQBRN (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>gabriel.flintz@gmail.com</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3422,24 +3616,26 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>6º BEC (Boa Vista-RR)</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>gabriel.p.paiva@hotmail.com</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3454,24 +3650,26 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>AGR (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>gabrielrbarbosa1909@gmail.com</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3486,24 +3684,26 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t>1º B Fv (Lages-SC)</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
         <is>
           <t>gabriellembaltazar@gmail.com</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3518,24 +3718,26 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>CTEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
         <is>
           <t>ggaudard22@gmail.com</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3550,24 +3752,26 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>ComDCiber (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
         <is>
           <t>izabandoch@gmail.com</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3582,24 +3786,26 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>CTEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
         <is>
           <t>joaopmg23@hotmail.com</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3614,24 +3820,26 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
           <t>Pq R Mnt/5ª RM (Curitiba-PR)</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
         <is>
           <t>lauroschramm@hotmail.com</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3646,24 +3854,26 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
           <t>AC-Defesa (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
         <is>
           <t>landerman@acdefesa.mil.br</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3678,24 +3888,26 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
           <t>5º CGEO (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
         <is>
           <t>lincoln.esteves@eb.mil.br</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3710,24 +3922,26 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
           <t>5º CGEO (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
         <is>
           <t>lucasdf0710@gmail.com</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3742,24 +3956,26 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
           <t>AGR (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
         <is>
           <t>lucasfgrangeiro@gmail.com</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3774,24 +3990,26 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
           <t>CRO/11ª RM (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
         <is>
           <t>lucashenriquebritorodriguez@gmail.com</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3806,24 +4024,26 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
           <t>Cmdo 1º Gpt E (João Pessoa-PB)</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
         <is>
           <t>juliacostamedeiros@gmail.com</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3838,24 +4058,26 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
           <t>CTEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
         <is>
           <t>neutonsevero@gmail.com</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3870,24 +4092,26 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
           <t>CTEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
         <is>
           <t>pauleta.guilherme98@gmail.com</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3902,24 +4126,26 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
           <t>AMAN (Resende-RJ)</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
         <is>
           <t>rodrigonauepinheiro@gmail.com</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3934,24 +4160,26 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
           <t>CTEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
         <is>
           <t>tales-cbr@hotmail.com</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3966,24 +4194,26 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t>Ba Av T (Taubaté-SP)</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
         <is>
           <t>tal.lima.202@gmail.com</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3998,24 +4228,26 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
           <t>CDS (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
         <is>
           <t>thainalucciola@gmail.com</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4030,24 +4262,26 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
           <t>5º BEC (Porto Velho-RO)</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
         <is>
           <t>thais.s.padilha@hotmail.com</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4062,24 +4296,26 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
           <t>CITEx (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
         <is>
           <t>majin99999@gmail.com</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4094,24 +4330,26 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
           <t>CRO/1ª RM (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
         <is>
           <t>victorchoairy@gmail.com</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4126,24 +4364,26 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
           <t>CI Art Msl Fgt (Formosa-GO)</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
         <is>
           <t>silva.vito1@gmail.com</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4158,24 +4398,26 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
           <t>CTEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
         <is>
           <t>vwenesb@gmail.com</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4190,24 +4432,26 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
           <t>CAEx (Rio de Janeiro-RJ)</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
         <is>
           <t>vinicius.r.macedo@gmail.com</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4222,24 +4466,26 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
           <t>CRO/3ª RM (Porto Alegre-RS)</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
         <is>
           <t>gonvtr@gmail.com</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4254,24 +4500,26 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
           <t>7º CTA (Brasília-DF)</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
         <is>
           <t>yury.loureiro@ime.eb.br</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Ativa</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="H120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4286,22 +4534,24 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
           <t>22/06/23</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4318,22 +4568,24 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
           <t>19/12/22</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4350,22 +4602,24 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
           <t>10/02/23</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4382,22 +4636,24 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
           <t>10/02/23</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4414,22 +4670,24 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
           <t>10/04/24</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4446,22 +4704,24 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
           <t>22/02/23</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4478,22 +4738,24 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
           <t>21/08/18</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
         <is>
           <t>Ex officio, por falta de aproveitamento escolar</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4510,22 +4772,24 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
           <t>09/02/23</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4542,22 +4806,24 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
           <t>19/12/22</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4574,22 +4840,24 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
           <t>12/12/22</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4606,22 +4874,24 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
           <t>19/12/22</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4638,22 +4908,24 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
           <t>19/12/22</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4670,22 +4942,24 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
           <t>30/04/24</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4702,22 +4976,24 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
           <t>09/02/23</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4734,22 +5010,24 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
           <t>31/12/20</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4766,22 +5044,24 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
           <t>08/08/23</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4798,22 +5078,24 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
           <t>10/02/23</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4830,22 +5112,24 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
           <t>10/02/23</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4862,22 +5146,24 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
           <t>10/02/23</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4894,22 +5180,24 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
           <t>19/12/22</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
@@ -4926,22 +5214,24 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>Excluído</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
           <t>19/12/22</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
         <is>
           <t>A Pedido</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Excluído</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>2022</t>
         </is>
       </c>
     </row>
